--- a/Tables/Table4_T1EandPower_Binary_Simulated.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AB1A0-A356-46A6-B29F-41F78D7B95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ED449A-14C9-4C95-82F7-7269F910D4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trait25" sheetId="1" r:id="rId1"/>
-    <sheet name="Trait26" sheetId="2" r:id="rId2"/>
-    <sheet name="Trait27" sheetId="3" r:id="rId3"/>
+    <sheet name="Info" sheetId="4" r:id="rId1"/>
+    <sheet name="Trait25" sheetId="1" r:id="rId2"/>
+    <sheet name="Trait26" sheetId="2" r:id="rId3"/>
+    <sheet name="Trait27" sheetId="3" r:id="rId4"/>
+    <sheet name="Trait28" sheetId="5" r:id="rId5"/>
+    <sheet name="Trait29" sheetId="6" r:id="rId6"/>
+    <sheet name="Trait30" sheetId="7" r:id="rId7"/>
+    <sheet name="Trait31" sheetId="8" r:id="rId8"/>
+    <sheet name="Trait32" sheetId="9" r:id="rId9"/>
+    <sheet name="Trait33" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="25">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +106,46 @@
     <t>fastGWA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Phenotypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Individuals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Causal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prevalence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -127,12 +174,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,11 +206,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,11 +492,693 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD888B34-CDA7-4672-913D-F81C3835A4F4}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>10000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="5">
+        <v>66688</v>
+      </c>
+      <c r="E19">
+        <v>0.9</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>10000</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
+        <v>10000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>10000</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>10000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25">
+        <v>0.9</v>
+      </c>
+      <c r="F25">
+        <v>10000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5156D-B603-4DE6-8349-0DAA0F3F8790}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1109,7 +1852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C081E-92D6-4B78-B185-DCBA62E5C9BB}">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -1788,11 +2531,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -2468,4 +3211,69 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8AA4-C000-41F4-BF16-645937E24711}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3453D-5969-43A8-99BA-C3A3B3B1D142}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342CD54D-B350-4234-9D6A-F56A96F518EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F32576D-7324-4E89-A691-F73DCAEAA290}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>